--- a/data/国家认同数据清理后.xlsx
+++ b/data/国家认同数据清理后.xlsx
@@ -270,7 +270,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +281,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -314,16 +320,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -756,7 +762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>681</v>
       </c>
@@ -842,7 +848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>615</v>
       </c>
@@ -928,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>612</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>602</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>317</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>128</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>841</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>691</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>683</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>524</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>458</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>456</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>252</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>188</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>157</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>332</v>
       </c>
